--- a/labs/Lab01/CS133JS_Lab01_Rubrics.xlsx
+++ b/labs/Lab01/CS133JS_Lab01_Rubrics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS133JS-CourseMaterials/labs/Lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AB8AF1-8215-7846-82F9-2CC6FD21071F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4A71B4-2DCA-6846-A655-E85747D2D417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="5200" windowWidth="28040" windowHeight="17440" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
+    <workbookView xWindow="13060" yWindow="5200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Group A" sheetId="1" r:id="rId1"/>
+    <sheet name="Group B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Criteria</t>
   </si>
@@ -67,6 +68,30 @@
   </si>
   <si>
     <t>Caption using variable and document.write</t>
+  </si>
+  <si>
+    <t>Are the correct developer’s name and date in a comment in the head element of the HTML page?</t>
+  </si>
+  <si>
+    <t>Is a variable used for the favorite site name?</t>
+  </si>
+  <si>
+    <t>Is a variable used for the site URL?</t>
+  </si>
+  <si>
+    <t>Is the HTML that displays the link to the web site produced by a document.write statement?</t>
+  </si>
+  <si>
+    <t>Is the caption produced by a document.write statement?</t>
+  </si>
+  <si>
+    <t>Is a heading displayed for the page?</t>
+  </si>
+  <si>
+    <t>Is the link displayed correctly?</t>
+  </si>
+  <si>
+    <t>Assignment Group B – Favorite web site</t>
   </si>
 </sst>
 </file>
@@ -438,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3216228F-B421-8943-9C69-C9FAC1E7C520}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +579,108 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6A7069-CD8C-C44F-B7C6-148A7A61DB13}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D4:D10)</f>
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E4:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/labs/Lab01/CS133JS_Lab01_Rubrics.xlsx
+++ b/labs/Lab01/CS133JS_Lab01_Rubrics.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS133JS-CourseMaterials/labs/Lab01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS133JS-CourseMaterials/Labs/Lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4A71B4-2DCA-6846-A655-E85747D2D417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908B465-4D7B-F141-91B5-85C8026E0D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="5200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Group A" sheetId="1" r:id="rId1"/>
     <sheet name="Group B" sheetId="2" r:id="rId2"/>
+    <sheet name="Group C" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Criteria</t>
   </si>
@@ -46,9 +47,6 @@
     <t>Caption displayed correctly</t>
   </si>
   <si>
-    <t>Developer’s name and date in head</t>
-  </si>
-  <si>
     <t>Possible</t>
   </si>
   <si>
@@ -61,37 +59,61 @@
     <t>Heading at top of page from document.write</t>
   </si>
   <si>
-    <t>Image using variable and document.write</t>
-  </si>
-  <si>
     <t>Image has alt text from variable</t>
   </si>
   <si>
     <t>Caption using variable and document.write</t>
   </si>
   <si>
-    <t>Are the correct developer’s name and date in a comment in the head element of the HTML page?</t>
-  </si>
-  <si>
-    <t>Is a variable used for the favorite site name?</t>
-  </si>
-  <si>
-    <t>Is a variable used for the site URL?</t>
-  </si>
-  <si>
-    <t>Is the HTML that displays the link to the web site produced by a document.write statement?</t>
-  </si>
-  <si>
-    <t>Is the caption produced by a document.write statement?</t>
-  </si>
-  <si>
-    <t>Is a heading displayed for the page?</t>
-  </si>
-  <si>
-    <t>Is the link displayed correctly?</t>
-  </si>
-  <si>
     <t>Assignment Group B – Favorite web site</t>
+  </si>
+  <si>
+    <t>Variable used for the site name</t>
+  </si>
+  <si>
+    <t>Variable used for the site URL</t>
+  </si>
+  <si>
+    <t>Caption from variable with document.write</t>
+  </si>
+  <si>
+    <t>Assignment Group C – Favorite quote</t>
+  </si>
+  <si>
+    <t>Variable used for the quote</t>
+  </si>
+  <si>
+    <t>Variable used for the person quoted</t>
+  </si>
+  <si>
+    <t>Link displayed correctly</t>
+  </si>
+  <si>
+    <t>Link in &lt;a&gt; from variable using document.write</t>
+  </si>
+  <si>
+    <t>Image in &lt;img&gt; from variable using document.write</t>
+  </si>
+  <si>
+    <t>Quote is displayed correctly</t>
+  </si>
+  <si>
+    <t>Quote has a tool tip (title attribute)</t>
+  </si>
+  <si>
+    <t>Attribution from variable using document.write</t>
+  </si>
+  <si>
+    <t>Quote in &lt;cite&gt; from variable using document.write</t>
+  </si>
+  <si>
+    <t>Developer’s name and date in &lt;head&gt;</t>
+  </si>
+  <si>
+    <t>Attribution displayed correctly</t>
+  </si>
+  <si>
+    <t>Link has target attribute to open in a new tab</t>
   </si>
 </sst>
 </file>
@@ -464,7 +486,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,15 +507,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -501,7 +523,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -525,7 +547,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -541,7 +563,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -549,7 +571,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -565,7 +587,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <f>SUM(D4:D12)</f>
@@ -583,9 +605,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6A7069-CD8C-C44F-B7C6-148A7A61DB13}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -594,7 +618,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -605,15 +629,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -621,7 +645,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -629,15 +653,15 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -645,10 +669,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -661,23 +685,165 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f>SUM(D4:D12)</f>
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E4:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23F5BD0-DC32-2447-A1C1-D2E07E467E1B}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
       <c r="D12">
-        <f>SUM(D4:D10)</f>
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <f>SUM(E4:E10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f>SUM(D4:D12)</f>
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E4:E11)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/labs/Lab01/CS133JS_Lab01_Rubrics.xlsx
+++ b/labs/Lab01/CS133JS_Lab01_Rubrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS133JS-CourseMaterials/Labs/Lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908B465-4D7B-F141-91B5-85C8026E0D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B7E0A-C394-4240-8FC5-DDAD0D47954D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
+    <workbookView xWindow="320" yWindow="1400" windowWidth="12600" windowHeight="14520" activeTab="2" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Group A" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Criteria</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Link has target attribute to open in a new tab</t>
+  </si>
+  <si>
+    <t>Code review with "Prod." completed</t>
+  </si>
+  <si>
+    <t>Part B</t>
+  </si>
+  <si>
+    <t>Part A: Exercise</t>
   </si>
 </sst>
 </file>
@@ -165,10 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3216228F-B421-8943-9C69-C9FAC1E7C520}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,88 +524,153 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
-        <f>SUM(D4:D12)</f>
+      <c r="D18">
+        <f>SUM(D3:D16)</f>
         <v>50</v>
       </c>
-      <c r="E14">
-        <f>SUM(E4:E12)</f>
-        <v>0</v>
+      <c r="E18">
+        <f>SUM(E3:E16)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6A7069-CD8C-C44F-B7C6-148A7A61DB13}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,90 +711,153 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
       <c r="D13">
-        <f>SUM(D4:D12)</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <f>SUM(E4:E11)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>8</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D3:D16)</f>
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E3:E16)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -729,15 +867,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23F5BD0-DC32-2447-A1C1-D2E07E467E1B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -760,90 +898,153 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
       <c r="D13">
-        <f>SUM(D4:D12)</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <f>SUM(E4:E11)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>8</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D3:D16)</f>
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E3:E16)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
